--- a/Team-Data/2011-12/2-20-2011-12.xlsx
+++ b/Team-Data/2011-12/2-20-2011-12.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,58 +733,58 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G2" t="n">
-        <v>0.594</v>
+        <v>0.613</v>
       </c>
       <c r="H2" t="n">
-        <v>48.9</v>
+        <v>49</v>
       </c>
       <c r="I2" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>80.7</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K2" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L2" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="M2" t="n">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="N2" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O2" t="n">
-        <v>15.2</v>
+        <v>15.4</v>
       </c>
       <c r="P2" t="n">
         <v>21</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.725</v>
+        <v>0.733</v>
       </c>
       <c r="R2" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="S2" t="n">
         <v>31.3</v>
       </c>
       <c r="T2" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U2" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V2" t="n">
         <v>13.6</v>
@@ -726,7 +793,7 @@
         <v>8.1</v>
       </c>
       <c r="X2" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="Y2" t="n">
         <v>4.9</v>
@@ -735,37 +802,37 @@
         <v>17.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>94</v>
+        <v>94.5</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE2" t="n">
         <v>8</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ2" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL2" t="n">
         <v>6</v>
@@ -774,28 +841,28 @@
         <v>17</v>
       </c>
       <c r="AN2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO2" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AP2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ2" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AR2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS2" t="n">
         <v>12</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV2" t="n">
         <v>3</v>
@@ -804,7 +871,7 @@
         <v>12</v>
       </c>
       <c r="AX2" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AY2" t="n">
         <v>11</v>
@@ -816,10 +883,10 @@
         <v>23</v>
       </c>
       <c r="BB2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -848,64 +915,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
         <v>15</v>
       </c>
       <c r="F3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0.484</v>
+        <v>0.5</v>
       </c>
       <c r="H3" t="n">
         <v>48.2</v>
       </c>
       <c r="I3" t="n">
-        <v>34.1</v>
+        <v>34.3</v>
       </c>
       <c r="J3" t="n">
-        <v>75.2</v>
+        <v>75.3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.454</v>
+        <v>0.456</v>
       </c>
       <c r="L3" t="n">
         <v>5.8</v>
       </c>
       <c r="M3" t="n">
-        <v>15.3</v>
+        <v>15</v>
       </c>
       <c r="N3" t="n">
-        <v>0.38</v>
+        <v>0.384</v>
       </c>
       <c r="O3" t="n">
-        <v>14.9</v>
+        <v>15.1</v>
       </c>
       <c r="P3" t="n">
-        <v>19.7</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="n">
         <v>0.756</v>
       </c>
       <c r="R3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="S3" t="n">
-        <v>30.5</v>
+        <v>30.2</v>
       </c>
       <c r="T3" t="n">
-        <v>39</v>
+        <v>38.8</v>
       </c>
       <c r="U3" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V3" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="W3" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X3" t="n">
         <v>5.7</v>
@@ -914,34 +981,34 @@
         <v>5.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>1.4</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE3" t="n">
         <v>18</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH3" t="n">
         <v>18</v>
       </c>
       <c r="AI3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ3" t="n">
         <v>30</v>
@@ -956,10 +1023,10 @@
         <v>23</v>
       </c>
       <c r="AN3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AP3" t="n">
         <v>27</v>
@@ -971,16 +1038,16 @@
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT3" t="n">
         <v>30</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW3" t="n">
         <v>27</v>
@@ -989,19 +1056,19 @@
         <v>4</v>
       </c>
       <c r="AY3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ3" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA3" t="n">
         <v>19</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>21</v>
       </c>
       <c r="BB3" t="n">
         <v>26</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-14.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>30</v>
@@ -1120,13 +1187,13 @@
         <v>30</v>
       </c>
       <c r="AH4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK4" t="n">
         <v>29</v>
@@ -1138,19 +1205,19 @@
         <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AP4" t="n">
         <v>23</v>
       </c>
       <c r="AQ4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR4" t="n">
         <v>25</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>24</v>
       </c>
       <c r="AS4" t="n">
         <v>22</v>
@@ -1171,7 +1238,7 @@
         <v>6</v>
       </c>
       <c r="AY4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>11</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -1212,58 +1279,58 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
         <v>8</v>
       </c>
       <c r="G5" t="n">
-        <v>0.765</v>
+        <v>0.758</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
       </c>
       <c r="I5" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>82</v>
+        <v>81.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.457</v>
+        <v>0.46</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
       </c>
       <c r="M5" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="N5" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O5" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P5" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q5" t="n">
         <v>0.728</v>
       </c>
       <c r="R5" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="S5" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T5" t="n">
-        <v>45.4</v>
+        <v>45.2</v>
       </c>
       <c r="U5" t="n">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="V5" t="n">
         <v>13.9</v>
@@ -1272,10 +1339,10 @@
         <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z5" t="n">
         <v>17.7</v>
@@ -1284,10 +1351,10 @@
         <v>18</v>
       </c>
       <c r="AB5" t="n">
-        <v>97</v>
+        <v>97.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="AD5" t="n">
         <v>1</v>
@@ -1302,16 +1369,16 @@
         <v>3</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI5" t="n">
         <v>7</v>
       </c>
       <c r="AJ5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL5" t="n">
         <v>18</v>
@@ -1320,16 +1387,16 @@
         <v>20</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AQ5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AR5" t="n">
         <v>2</v>
@@ -1350,22 +1417,22 @@
         <v>21</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AZ5" t="n">
         <v>3</v>
       </c>
       <c r="BA5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB5" t="n">
         <v>9</v>
       </c>
       <c r="BC5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -1472,31 +1539,31 @@
         <v>-3.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE6" t="n">
         <v>22</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG6" t="n">
         <v>21</v>
       </c>
       <c r="AH6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>25</v>
       </c>
       <c r="AL6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AM6" t="n">
         <v>16</v>
@@ -1517,10 +1584,10 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU6" t="n">
         <v>18</v>
@@ -1541,7 +1608,7 @@
         <v>23</v>
       </c>
       <c r="BA6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB6" t="n">
         <v>19</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
         <v>12</v>
       </c>
       <c r="G7" t="n">
-        <v>0.636</v>
+        <v>0.625</v>
       </c>
       <c r="H7" t="n">
         <v>48.5</v>
@@ -1594,43 +1661,43 @@
         <v>35.8</v>
       </c>
       <c r="J7" t="n">
-        <v>81.40000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.44</v>
+        <v>0.441</v>
       </c>
       <c r="L7" t="n">
         <v>7.1</v>
       </c>
       <c r="M7" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="N7" t="n">
-        <v>0.329</v>
+        <v>0.33</v>
       </c>
       <c r="O7" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="P7" t="n">
-        <v>21.3</v>
+        <v>21.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.742</v>
+        <v>0.743</v>
       </c>
       <c r="R7" t="n">
         <v>10.4</v>
       </c>
       <c r="S7" t="n">
-        <v>33.1</v>
+        <v>32.9</v>
       </c>
       <c r="T7" t="n">
-        <v>43.5</v>
+        <v>43.3</v>
       </c>
       <c r="U7" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="V7" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W7" t="n">
         <v>9.1</v>
@@ -1639,22 +1706,22 @@
         <v>5.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="AA7" t="n">
         <v>18.8</v>
       </c>
       <c r="AB7" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC7" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>5</v>
@@ -1663,16 +1730,16 @@
         <v>6</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI7" t="n">
         <v>16</v>
       </c>
       <c r="AJ7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK7" t="n">
         <v>17</v>
@@ -1684,7 +1751,7 @@
         <v>5</v>
       </c>
       <c r="AN7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO7" t="n">
         <v>20</v>
@@ -1693,19 +1760,19 @@
         <v>19</v>
       </c>
       <c r="AQ7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
         <v>22</v>
       </c>
       <c r="AS7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV7" t="n">
         <v>9</v>
@@ -1714,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
@@ -1726,7 +1793,7 @@
         <v>22</v>
       </c>
       <c r="BB7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -1758,55 +1825,55 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="n">
         <v>15</v>
       </c>
       <c r="G8" t="n">
-        <v>0.545</v>
+        <v>0.531</v>
       </c>
       <c r="H8" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I8" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J8" t="n">
-        <v>81</v>
+        <v>80.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.472</v>
+        <v>0.474</v>
       </c>
       <c r="L8" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M8" t="n">
         <v>20.7</v>
       </c>
       <c r="N8" t="n">
-        <v>0.324</v>
+        <v>0.327</v>
       </c>
       <c r="O8" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="P8" t="n">
-        <v>28.2</v>
+        <v>27.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.733</v>
+        <v>0.735</v>
       </c>
       <c r="R8" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S8" t="n">
-        <v>32.6</v>
+        <v>32.4</v>
       </c>
       <c r="T8" t="n">
-        <v>43.1</v>
+        <v>42.6</v>
       </c>
       <c r="U8" t="n">
         <v>22.8</v>
@@ -1818,13 +1885,13 @@
         <v>9</v>
       </c>
       <c r="X8" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y8" t="n">
         <v>6.7</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
         <v>23.3</v>
@@ -1836,16 +1903,16 @@
         <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH8" t="n">
         <v>2</v>
@@ -1854,19 +1921,19 @@
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK8" t="n">
         <v>3</v>
       </c>
       <c r="AL8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM8" t="n">
         <v>7</v>
       </c>
       <c r="AN8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO8" t="n">
         <v>3</v>
@@ -1878,13 +1945,13 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT8" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AU8" t="n">
         <v>2</v>
@@ -1896,7 +1963,7 @@
         <v>4</v>
       </c>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AY8" t="n">
         <v>30</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -2018,10 +2085,10 @@
         <v>-6.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>25</v>
@@ -2030,7 +2097,7 @@
         <v>24</v>
       </c>
       <c r="AH9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI9" t="n">
         <v>26</v>
@@ -2045,7 +2112,7 @@
         <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN9" t="n">
         <v>16</v>
@@ -2054,7 +2121,7 @@
         <v>14</v>
       </c>
       <c r="AP9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ9" t="n">
         <v>10</v>
@@ -2093,7 +2160,7 @@
         <v>27</v>
       </c>
       <c r="BC9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -2122,25 +2189,25 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" t="n">
         <v>17</v>
       </c>
       <c r="G10" t="n">
-        <v>0.414</v>
+        <v>0.393</v>
       </c>
       <c r="H10" t="n">
-        <v>48.3</v>
+        <v>48.4</v>
       </c>
       <c r="I10" t="n">
         <v>37.6</v>
       </c>
       <c r="J10" t="n">
-        <v>82</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K10" t="n">
         <v>0.459</v>
@@ -2149,25 +2216,25 @@
         <v>8.300000000000001</v>
       </c>
       <c r="M10" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N10" t="n">
-        <v>0.394</v>
+        <v>0.395</v>
       </c>
       <c r="O10" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P10" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.746</v>
+        <v>0.744</v>
       </c>
       <c r="R10" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S10" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="T10" t="n">
         <v>39.6</v>
@@ -2176,40 +2243,40 @@
         <v>22.6</v>
       </c>
       <c r="V10" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="W10" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="X10" t="n">
         <v>5.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA10" t="n">
         <v>18</v>
       </c>
       <c r="AB10" t="n">
-        <v>99</v>
+        <v>98.8</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.6</v>
+        <v>-1.9</v>
       </c>
       <c r="AD10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
         <v>12</v>
@@ -2221,7 +2288,7 @@
         <v>9</v>
       </c>
       <c r="AK10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AL10" t="n">
         <v>3</v>
@@ -2233,10 +2300,10 @@
         <v>2</v>
       </c>
       <c r="AO10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ10" t="n">
         <v>15</v>
@@ -2254,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="AV10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2269,13 +2336,13 @@
         <v>29</v>
       </c>
       <c r="BA10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB10" t="n">
         <v>4</v>
       </c>
       <c r="BC10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -2304,25 +2371,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="n">
         <v>14</v>
       </c>
       <c r="G11" t="n">
-        <v>0.576</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.5</v>
       </c>
       <c r="I11" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J11" t="n">
-        <v>83.8</v>
+        <v>84.2</v>
       </c>
       <c r="K11" t="n">
         <v>0.451</v>
@@ -2331,28 +2398,28 @@
         <v>7.1</v>
       </c>
       <c r="M11" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O11" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="P11" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R11" t="n">
         <v>11.9</v>
       </c>
       <c r="S11" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="T11" t="n">
-        <v>42.6</v>
+        <v>42.8</v>
       </c>
       <c r="U11" t="n">
         <v>20.8</v>
@@ -2364,28 +2431,28 @@
         <v>7.9</v>
       </c>
       <c r="X11" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y11" t="n">
         <v>5.2</v>
       </c>
       <c r="Z11" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA11" t="n">
-        <v>17.8</v>
+        <v>17.6</v>
       </c>
       <c r="AB11" t="n">
         <v>97.7</v>
       </c>
       <c r="AC11" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>12</v>
@@ -2394,7 +2461,7 @@
         <v>12</v>
       </c>
       <c r="AH11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI11" t="n">
         <v>3</v>
@@ -2412,25 +2479,25 @@
         <v>11</v>
       </c>
       <c r="AN11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO11" t="n">
         <v>28</v>
       </c>
       <c r="AP11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AQ11" t="n">
         <v>3</v>
       </c>
       <c r="AR11" t="n">
+        <v>11</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AT11" t="n">
         <v>12</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>16</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>14</v>
       </c>
       <c r="AU11" t="n">
         <v>15</v>
@@ -2448,7 +2515,7 @@
         <v>19</v>
       </c>
       <c r="AZ11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA11" t="n">
         <v>29</v>
@@ -2457,7 +2524,7 @@
         <v>7</v>
       </c>
       <c r="BC11" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2631,7 @@
         <v>2.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE12" t="n">
         <v>8</v>
@@ -2576,7 +2643,7 @@
         <v>9</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>22</v>
@@ -2627,19 +2694,19 @@
         <v>8</v>
       </c>
       <c r="AY12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>26</v>
       </c>
       <c r="BA12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BB12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -2668,82 +2735,82 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>0.633</v>
+        <v>0.655</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
       </c>
       <c r="I13" t="n">
-        <v>36.4</v>
+        <v>36.6</v>
       </c>
       <c r="J13" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K13" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L13" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M13" t="n">
-        <v>21.9</v>
+        <v>21.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.356</v>
+        <v>0.353</v>
       </c>
       <c r="O13" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P13" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R13" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S13" t="n">
-        <v>30.8</v>
+        <v>30.9</v>
       </c>
       <c r="T13" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U13" t="n">
-        <v>21.3</v>
+        <v>21.6</v>
       </c>
       <c r="V13" t="n">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="W13" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X13" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="AB13" t="n">
-        <v>97.7</v>
+        <v>97.8</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD13" t="n">
         <v>28</v>
@@ -2755,7 +2822,7 @@
         <v>5</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH13" t="n">
         <v>6</v>
@@ -2767,7 +2834,7 @@
         <v>19</v>
       </c>
       <c r="AK13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL13" t="n">
         <v>5</v>
@@ -2782,37 +2849,37 @@
         <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AS13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AT13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU13" t="n">
         <v>11</v>
       </c>
       <c r="AV13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AY13" t="n">
         <v>4</v>
       </c>
       <c r="AZ13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -2850,70 +2917,70 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" t="n">
         <v>13</v>
       </c>
       <c r="G14" t="n">
-        <v>0.594</v>
+        <v>0.581</v>
       </c>
       <c r="H14" t="n">
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J14" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K14" t="n">
         <v>0.45</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M14" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="O14" t="n">
         <v>16.7</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0.301</v>
-      </c>
-      <c r="O14" t="n">
-        <v>16.8</v>
       </c>
       <c r="P14" t="n">
         <v>22.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.744</v>
+        <v>0.74</v>
       </c>
       <c r="R14" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S14" t="n">
-        <v>34</v>
+        <v>33.9</v>
       </c>
       <c r="T14" t="n">
-        <v>45.7</v>
+        <v>45.5</v>
       </c>
       <c r="U14" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="V14" t="n">
         <v>15.1</v>
       </c>
       <c r="W14" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="X14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="Z14" t="n">
         <v>18.5</v>
@@ -2922,22 +2989,22 @@
         <v>19.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>93.3</v>
+        <v>93</v>
       </c>
       <c r="AC14" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AF14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH14" t="n">
         <v>14</v>
@@ -2958,7 +3025,7 @@
         <v>19</v>
       </c>
       <c r="AN14" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AO14" t="n">
         <v>15</v>
@@ -2967,10 +3034,10 @@
         <v>13</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS14" t="n">
         <v>1</v>
@@ -2979,7 +3046,7 @@
         <v>1</v>
       </c>
       <c r="AU14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV14" t="n">
         <v>16</v>
@@ -2988,7 +3055,7 @@
         <v>29</v>
       </c>
       <c r="AX14" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3000,10 +3067,10 @@
         <v>15</v>
       </c>
       <c r="BB14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BC14" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E15" t="n">
         <v>18</v>
       </c>
       <c r="F15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.545</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="H15" t="n">
         <v>48.2</v>
@@ -3050,25 +3117,25 @@
         <v>36.4</v>
       </c>
       <c r="J15" t="n">
-        <v>81.90000000000001</v>
+        <v>82</v>
       </c>
       <c r="K15" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L15" t="n">
         <v>3.6</v>
       </c>
       <c r="M15" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="N15" t="n">
-        <v>0.32</v>
+        <v>0.323</v>
       </c>
       <c r="O15" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P15" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q15" t="n">
         <v>0.755</v>
@@ -3077,28 +3144,28 @@
         <v>12.4</v>
       </c>
       <c r="S15" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T15" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="U15" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="V15" t="n">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="X15" t="n">
         <v>5.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="AA15" t="n">
         <v>20</v>
@@ -3107,19 +3174,19 @@
         <v>93.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH15" t="n">
         <v>25</v>
@@ -3128,10 +3195,10 @@
         <v>12</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL15" t="n">
         <v>30</v>
@@ -3140,7 +3207,7 @@
         <v>30</v>
       </c>
       <c r="AN15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
         <v>11</v>
@@ -3155,7 +3222,7 @@
         <v>5</v>
       </c>
       <c r="AS15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT15" t="n">
         <v>16</v>
@@ -3164,16 +3231,16 @@
         <v>25</v>
       </c>
       <c r="AV15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW15" t="n">
         <v>1</v>
       </c>
       <c r="AX15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AY15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AZ15" t="n">
         <v>12</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>9.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF16" t="n">
         <v>1</v>
@@ -3304,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="AH16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI16" t="n">
         <v>1</v>
@@ -3319,7 +3386,7 @@
         <v>19</v>
       </c>
       <c r="AM16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN16" t="n">
         <v>1</v>
@@ -3331,22 +3398,22 @@
         <v>3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AS16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
@@ -3358,7 +3425,7 @@
         <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA16" t="n">
         <v>5</v>
@@ -3367,7 +3434,7 @@
         <v>2</v>
       </c>
       <c r="BC16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" t="n">
         <v>13</v>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" t="n">
-        <v>0.406</v>
+        <v>0.419</v>
       </c>
       <c r="H17" t="n">
         <v>48.2</v>
@@ -3414,43 +3481,43 @@
         <v>35.8</v>
       </c>
       <c r="J17" t="n">
-        <v>84.59999999999999</v>
+        <v>84.40000000000001</v>
       </c>
       <c r="K17" t="n">
         <v>0.424</v>
       </c>
       <c r="L17" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M17" t="n">
         <v>20.4</v>
       </c>
       <c r="N17" t="n">
-        <v>0.333</v>
+        <v>0.337</v>
       </c>
       <c r="O17" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="P17" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.792</v>
+        <v>0.791</v>
       </c>
       <c r="R17" t="n">
-        <v>12.8</v>
+        <v>12.5</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U17" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V17" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
         <v>7.9</v>
@@ -3459,37 +3526,37 @@
         <v>5.2</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z17" t="n">
         <v>20</v>
       </c>
       <c r="AA17" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="AC17" t="n">
         <v>-1.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF17" t="n">
         <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AH17" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>1</v>
@@ -3498,7 +3565,7 @@
         <v>27</v>
       </c>
       <c r="AL17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM17" t="n">
         <v>8</v>
@@ -3507,10 +3574,10 @@
         <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP17" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AQ17" t="n">
         <v>2</v>
@@ -3537,7 +3604,7 @@
         <v>12</v>
       </c>
       <c r="AY17" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ17" t="n">
         <v>15</v>
@@ -3549,7 +3616,7 @@
         <v>14</v>
       </c>
       <c r="BC17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -3578,37 +3645,37 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E18" t="n">
         <v>16</v>
       </c>
       <c r="F18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G18" t="n">
-        <v>0.485</v>
+        <v>0.5</v>
       </c>
       <c r="H18" t="n">
-        <v>48.2</v>
+        <v>48</v>
       </c>
       <c r="I18" t="n">
         <v>35.1</v>
       </c>
       <c r="J18" t="n">
-        <v>81.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.431</v>
+        <v>0.433</v>
       </c>
       <c r="L18" t="n">
         <v>6.3</v>
       </c>
       <c r="M18" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="N18" t="n">
-        <v>0.316</v>
+        <v>0.32</v>
       </c>
       <c r="O18" t="n">
         <v>20.2</v>
@@ -3617,19 +3684,19 @@
         <v>26</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.779</v>
+        <v>0.774</v>
       </c>
       <c r="R18" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S18" t="n">
         <v>32.7</v>
       </c>
       <c r="T18" t="n">
-        <v>45</v>
+        <v>44.8</v>
       </c>
       <c r="U18" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="V18" t="n">
         <v>16.2</v>
@@ -3638,25 +3705,25 @@
         <v>7.7</v>
       </c>
       <c r="X18" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y18" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="Z18" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="AA18" t="n">
         <v>22.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>96.7</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AD18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3668,22 +3735,22 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AI18" t="n">
         <v>19</v>
       </c>
       <c r="AJ18" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN18" t="n">
         <v>23</v>
@@ -3698,7 +3765,7 @@
         <v>7</v>
       </c>
       <c r="AR18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
         <v>6</v>
@@ -3707,7 +3774,7 @@
         <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AV18" t="n">
         <v>27</v>
@@ -3716,10 +3783,10 @@
         <v>19</v>
       </c>
       <c r="AX18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AY18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ18" t="n">
         <v>7</v>
@@ -3731,7 +3798,7 @@
         <v>10</v>
       </c>
       <c r="BC18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -3760,61 +3827,61 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>24</v>
       </c>
       <c r="G19" t="n">
-        <v>0.294</v>
+        <v>0.273</v>
       </c>
       <c r="H19" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I19" t="n">
         <v>33.4</v>
       </c>
       <c r="J19" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K19" t="n">
-        <v>0.421</v>
+        <v>0.422</v>
       </c>
       <c r="L19" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="M19" t="n">
-        <v>24.8</v>
+        <v>24.6</v>
       </c>
       <c r="N19" t="n">
-        <v>0.356</v>
+        <v>0.351</v>
       </c>
       <c r="O19" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P19" t="n">
-        <v>22.1</v>
+        <v>21.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.772</v>
+        <v>0.774</v>
       </c>
       <c r="R19" t="n">
         <v>12.3</v>
       </c>
       <c r="S19" t="n">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="T19" t="n">
-        <v>39.5</v>
+        <v>39.3</v>
       </c>
       <c r="U19" t="n">
         <v>19.9</v>
       </c>
       <c r="V19" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="W19" t="n">
         <v>6.9</v>
@@ -3826,31 +3893,31 @@
         <v>5.3</v>
       </c>
       <c r="Z19" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>92.59999999999999</v>
+        <v>92.3</v>
       </c>
       <c r="AC19" t="n">
-        <v>-6.4</v>
+        <v>-6.9</v>
       </c>
       <c r="AD19" t="n">
         <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG19" t="n">
         <v>27</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AH19" t="n">
         <v>26</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>28</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3868,13 +3935,13 @@
         <v>2</v>
       </c>
       <c r="AN19" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AQ19" t="n">
         <v>9</v>
@@ -3892,28 +3959,28 @@
         <v>20</v>
       </c>
       <c r="AV19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AW19" t="n">
         <v>26</v>
       </c>
       <c r="AX19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY19" t="n">
         <v>20</v>
       </c>
       <c r="AZ19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BA19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB19" t="n">
         <v>24</v>
       </c>
       <c r="BC19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G20" t="n">
-        <v>0.226</v>
+        <v>0.233</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
@@ -3960,40 +4027,40 @@
         <v>34.2</v>
       </c>
       <c r="J20" t="n">
-        <v>78.2</v>
+        <v>77.8</v>
       </c>
       <c r="K20" t="n">
-        <v>0.437</v>
+        <v>0.44</v>
       </c>
       <c r="L20" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="M20" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="N20" t="n">
-        <v>0.316</v>
+        <v>0.309</v>
       </c>
       <c r="O20" t="n">
-        <v>15.3</v>
+        <v>15.1</v>
       </c>
       <c r="P20" t="n">
         <v>20.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.744</v>
+        <v>0.739</v>
       </c>
       <c r="R20" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S20" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T20" t="n">
-        <v>41.4</v>
+        <v>41.2</v>
       </c>
       <c r="U20" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V20" t="n">
         <v>15.5</v>
@@ -4005,28 +4072,28 @@
         <v>4.7</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA20" t="n">
         <v>18.2</v>
       </c>
       <c r="AB20" t="n">
-        <v>87.5</v>
+        <v>87.3</v>
       </c>
       <c r="AC20" t="n">
-        <v>-5.3</v>
+        <v>-5.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE20" t="n">
         <v>28</v>
       </c>
       <c r="AF20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG20" t="n">
         <v>28</v>
@@ -4035,16 +4102,16 @@
         <v>18</v>
       </c>
       <c r="AI20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AK20" t="n">
         <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>29</v>
@@ -4053,13 +4120,13 @@
         <v>24</v>
       </c>
       <c r="AO20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AR20" t="n">
         <v>15</v>
@@ -4068,7 +4135,7 @@
         <v>25</v>
       </c>
       <c r="AT20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU20" t="n">
         <v>21</v>
@@ -4077,13 +4144,13 @@
         <v>22</v>
       </c>
       <c r="AW20" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AX20" t="n">
         <v>21</v>
       </c>
       <c r="AY20" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
         <v>21</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -4124,37 +4191,37 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E21" t="n">
         <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" t="n">
-        <v>0.485</v>
+        <v>0.5</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>34.7</v>
+        <v>34.8</v>
       </c>
       <c r="J21" t="n">
-        <v>80.40000000000001</v>
+        <v>80.3</v>
       </c>
       <c r="K21" t="n">
-        <v>0.432</v>
+        <v>0.433</v>
       </c>
       <c r="L21" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M21" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="N21" t="n">
-        <v>0.301</v>
+        <v>0.303</v>
       </c>
       <c r="O21" t="n">
         <v>19</v>
@@ -4163,7 +4230,7 @@
         <v>25.1</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.758</v>
+        <v>0.759</v>
       </c>
       <c r="R21" t="n">
         <v>10.8</v>
@@ -4175,7 +4242,7 @@
         <v>41.6</v>
       </c>
       <c r="U21" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="V21" t="n">
         <v>16.8</v>
@@ -4184,25 +4251,25 @@
         <v>9.4</v>
       </c>
       <c r="X21" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z21" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA21" t="n">
         <v>22.8</v>
       </c>
       <c r="AB21" t="n">
-        <v>95.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>16</v>
@@ -4214,25 +4281,25 @@
         <v>16</v>
       </c>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI21" t="n">
         <v>20</v>
       </c>
       <c r="AJ21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
       </c>
       <c r="AN21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO21" t="n">
         <v>6</v>
@@ -4247,10 +4314,10 @@
         <v>17</v>
       </c>
       <c r="AS21" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AT21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU21" t="n">
         <v>23</v>
@@ -4262,13 +4329,13 @@
         <v>2</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
         <v>15</v>
       </c>
       <c r="AZ21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA21" t="n">
         <v>2</v>
@@ -4277,7 +4344,7 @@
         <v>12</v>
       </c>
       <c r="BC21" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" t="n">
         <v>7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.781</v>
+        <v>0.774</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
@@ -4324,76 +4391,76 @@
         <v>37</v>
       </c>
       <c r="J22" t="n">
-        <v>77.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="K22" t="n">
         <v>0.475</v>
       </c>
       <c r="L22" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="M22" t="n">
-        <v>19.5</v>
+        <v>19.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O22" t="n">
         <v>21.6</v>
       </c>
       <c r="P22" t="n">
-        <v>27.1</v>
+        <v>27.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.797</v>
+        <v>0.795</v>
       </c>
       <c r="R22" t="n">
         <v>10.5</v>
       </c>
       <c r="S22" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T22" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U22" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="V22" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="W22" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="X22" t="n">
         <v>7.8</v>
       </c>
-      <c r="X22" t="n">
-        <v>8</v>
-      </c>
       <c r="Y22" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Z22" t="n">
         <v>20.8</v>
       </c>
       <c r="AA22" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB22" t="n">
         <v>102.3</v>
       </c>
       <c r="AC22" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>1</v>
       </c>
       <c r="AG22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH22" t="n">
         <v>14</v>
@@ -4402,13 +4469,13 @@
         <v>8</v>
       </c>
       <c r="AJ22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AK22" t="n">
         <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AM22" t="n">
         <v>15</v>
@@ -4429,7 +4496,7 @@
         <v>21</v>
       </c>
       <c r="AS22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
@@ -4441,19 +4508,19 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
       </c>
       <c r="AY22" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ22" t="n">
         <v>22</v>
       </c>
       <c r="BA22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB22" t="n">
         <v>3</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F23" t="n">
         <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>0.636</v>
+        <v>0.625</v>
       </c>
       <c r="H23" t="n">
         <v>48.5</v>
@@ -4506,40 +4573,40 @@
         <v>33.4</v>
       </c>
       <c r="J23" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="K23" t="n">
         <v>0.434</v>
       </c>
       <c r="L23" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="M23" t="n">
-        <v>25.9</v>
+        <v>26</v>
       </c>
       <c r="N23" t="n">
-        <v>0.39</v>
+        <v>0.391</v>
       </c>
       <c r="O23" t="n">
-        <v>16.2</v>
+        <v>16.1</v>
       </c>
       <c r="P23" t="n">
         <v>24.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.656</v>
+        <v>0.653</v>
       </c>
       <c r="R23" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="S23" t="n">
         <v>32.6</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="V23" t="n">
         <v>15.1</v>
@@ -4548,7 +4615,7 @@
         <v>6.3</v>
       </c>
       <c r="X23" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y23" t="n">
         <v>4.5</v>
@@ -4557,7 +4624,7 @@
         <v>18</v>
       </c>
       <c r="AA23" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AB23" t="n">
         <v>93.09999999999999</v>
@@ -4566,7 +4633,7 @@
         <v>2</v>
       </c>
       <c r="AD23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>5</v>
@@ -4575,10 +4642,10 @@
         <v>6</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI23" t="n">
         <v>29</v>
@@ -4596,10 +4663,10 @@
         <v>1</v>
       </c>
       <c r="AN23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
         <v>11</v>
@@ -4608,10 +4675,10 @@
         <v>30</v>
       </c>
       <c r="AR23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT23" t="n">
         <v>9</v>
@@ -4626,7 +4693,7 @@
         <v>28</v>
       </c>
       <c r="AX23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY23" t="n">
         <v>8</v>
@@ -4635,13 +4702,13 @@
         <v>5</v>
       </c>
       <c r="BA23" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BC23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -4748,19 +4815,19 @@
         <v>7.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH24" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AI24" t="n">
         <v>5</v>
@@ -4769,7 +4836,7 @@
         <v>5</v>
       </c>
       <c r="AK24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL24" t="n">
         <v>20</v>
@@ -4784,10 +4851,10 @@
         <v>30</v>
       </c>
       <c r="AP24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ24" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AR24" t="n">
         <v>29</v>
@@ -4796,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV24" t="n">
         <v>1</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" t="n">
         <v>19</v>
       </c>
       <c r="G25" t="n">
-        <v>0.424</v>
+        <v>0.406</v>
       </c>
       <c r="H25" t="n">
         <v>48</v>
@@ -4870,7 +4937,7 @@
         <v>36.2</v>
       </c>
       <c r="J25" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K25" t="n">
         <v>0.446</v>
@@ -4885,25 +4952,25 @@
         <v>0.344</v>
       </c>
       <c r="O25" t="n">
-        <v>14.9</v>
+        <v>14.7</v>
       </c>
       <c r="P25" t="n">
-        <v>19.3</v>
+        <v>19</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R25" t="n">
         <v>9.9</v>
       </c>
       <c r="S25" t="n">
-        <v>31.1</v>
+        <v>31</v>
       </c>
       <c r="T25" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U25" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="V25" t="n">
         <v>14.8</v>
@@ -4915,40 +4982,40 @@
         <v>5.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA25" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.3</v>
+        <v>94</v>
       </c>
       <c r="AC25" t="n">
-        <v>-2.5</v>
+        <v>-3.1</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>20</v>
       </c>
       <c r="AF25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AG25" t="n">
         <v>22</v>
       </c>
-      <c r="AG25" t="n">
-        <v>20</v>
-      </c>
       <c r="AH25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI25" t="n">
         <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
         <v>13</v>
@@ -4963,7 +5030,7 @@
         <v>15</v>
       </c>
       <c r="AO25" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AP25" t="n">
         <v>28</v>
@@ -4972,10 +5039,10 @@
         <v>8</v>
       </c>
       <c r="AR25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT25" t="n">
         <v>25</v>
@@ -4984,13 +5051,13 @@
         <v>5</v>
       </c>
       <c r="AV25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW25" t="n">
         <v>22</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AY25" t="n">
         <v>5</v>
@@ -4999,10 +5066,10 @@
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC25" t="n">
         <v>22</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E26" t="n">
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>0.515</v>
+        <v>0.531</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>36.6</v>
+        <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>82.90000000000001</v>
+        <v>83</v>
       </c>
       <c r="K26" t="n">
-        <v>0.442</v>
+        <v>0.443</v>
       </c>
       <c r="L26" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.329</v>
+        <v>0.322</v>
       </c>
       <c r="O26" t="n">
         <v>17.6</v>
@@ -5073,61 +5140,61 @@
         <v>22.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.782</v>
+        <v>0.783</v>
       </c>
       <c r="R26" t="n">
         <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T26" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U26" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V26" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W26" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X26" t="n">
         <v>5.2</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z26" t="n">
         <v>20</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="AD26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH26" t="n">
         <v>5</v>
       </c>
       <c r="AI26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ26" t="n">
         <v>6</v>
@@ -5136,13 +5203,13 @@
         <v>16</v>
       </c>
       <c r="AL26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM26" t="n">
         <v>14</v>
       </c>
       <c r="AN26" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AO26" t="n">
         <v>9</v>
@@ -5151,13 +5218,13 @@
         <v>14</v>
       </c>
       <c r="AQ26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AR26" t="n">
         <v>16</v>
       </c>
       <c r="AS26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT26" t="n">
         <v>17</v>
@@ -5169,25 +5236,25 @@
         <v>7</v>
       </c>
       <c r="AW26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX26" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY26" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ26" t="n">
         <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB26" t="n">
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -5294,7 +5361,7 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="AE27" t="n">
         <v>25</v>
@@ -5306,7 +5373,7 @@
         <v>25</v>
       </c>
       <c r="AH27" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI27" t="n">
         <v>23</v>
@@ -5321,7 +5388,7 @@
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN27" t="n">
         <v>25</v>
@@ -5330,16 +5397,16 @@
         <v>8</v>
       </c>
       <c r="AP27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AR27" t="n">
         <v>1</v>
       </c>
       <c r="AS27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT27" t="n">
         <v>4</v>
@@ -5348,7 +5415,7 @@
         <v>30</v>
       </c>
       <c r="AV27" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW27" t="n">
         <v>11</v>
@@ -5366,7 +5433,7 @@
         <v>11</v>
       </c>
       <c r="BB27" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BC27" t="n">
         <v>28</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -5398,55 +5465,55 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E28" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" t="n">
         <v>9</v>
       </c>
       <c r="G28" t="n">
-        <v>0.719</v>
+        <v>0.71</v>
       </c>
       <c r="H28" t="n">
         <v>48.6</v>
       </c>
       <c r="I28" t="n">
-        <v>37.8</v>
+        <v>37.9</v>
       </c>
       <c r="J28" t="n">
-        <v>82.09999999999999</v>
+        <v>82.2</v>
       </c>
       <c r="K28" t="n">
         <v>0.461</v>
       </c>
       <c r="L28" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M28" t="n">
         <v>20</v>
       </c>
       <c r="N28" t="n">
-        <v>0.39</v>
+        <v>0.387</v>
       </c>
       <c r="O28" t="n">
-        <v>15.4</v>
+        <v>15.1</v>
       </c>
       <c r="P28" t="n">
-        <v>21.2</v>
+        <v>20.9</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.726</v>
+        <v>0.723</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T28" t="n">
-        <v>41.4</v>
+        <v>41.7</v>
       </c>
       <c r="U28" t="n">
         <v>22.4</v>
@@ -5455,7 +5522,7 @@
         <v>13.5</v>
       </c>
       <c r="W28" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X28" t="n">
         <v>4.5</v>
@@ -5467,16 +5534,16 @@
         <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="AC28" t="n">
         <v>4.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE28" t="n">
         <v>4</v>
@@ -5506,16 +5573,16 @@
         <v>10</v>
       </c>
       <c r="AN28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR28" t="n">
         <v>26</v>
@@ -5524,7 +5591,7 @@
         <v>10</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>4</v>
@@ -5545,13 +5612,13 @@
         <v>1</v>
       </c>
       <c r="BA28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
         <v>5</v>
       </c>
       <c r="BC28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -5658,16 +5725,16 @@
         <v>-5.5</v>
       </c>
       <c r="AD29" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AF29" t="n">
         <v>26</v>
       </c>
       <c r="AG29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH29" t="n">
         <v>8</v>
@@ -5694,25 +5761,25 @@
         <v>21</v>
       </c>
       <c r="AP29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ29" t="n">
         <v>14</v>
       </c>
       <c r="AR29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AU29" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV29" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW29" t="n">
         <v>23</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -5762,61 +5829,61 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E30" t="n">
         <v>15</v>
       </c>
       <c r="F30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" t="n">
-        <v>0.484</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J30" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>0.451</v>
+        <v>0.45</v>
       </c>
       <c r="L30" t="n">
         <v>3.8</v>
       </c>
       <c r="M30" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="N30" t="n">
-        <v>0.299</v>
+        <v>0.298</v>
       </c>
       <c r="O30" t="n">
         <v>18.8</v>
       </c>
       <c r="P30" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.746</v>
+        <v>0.743</v>
       </c>
       <c r="R30" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S30" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T30" t="n">
         <v>42.4</v>
       </c>
       <c r="U30" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V30" t="n">
-        <v>14.3</v>
+        <v>14.2</v>
       </c>
       <c r="W30" t="n">
         <v>7.9</v>
@@ -5831,43 +5898,43 @@
         <v>22.2</v>
       </c>
       <c r="AA30" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AB30" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG30" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
         <v>7</v>
       </c>
       <c r="AI30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ30" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK30" t="n">
         <v>11</v>
       </c>
       <c r="AL30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AM30" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN30" t="n">
         <v>29</v>
@@ -5882,7 +5949,7 @@
         <v>16</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AS30" t="n">
         <v>21</v>
@@ -5891,10 +5958,10 @@
         <v>15</v>
       </c>
       <c r="AU30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW30" t="n">
         <v>15</v>
@@ -5903,13 +5970,13 @@
         <v>3</v>
       </c>
       <c r="AY30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
       </c>
       <c r="BA30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB30" t="n">
         <v>11</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E31" t="n">
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="H31" t="n">
         <v>48.2</v>
@@ -5971,40 +6038,40 @@
         <v>4.4</v>
       </c>
       <c r="M31" t="n">
-        <v>14.8</v>
+        <v>14.6</v>
       </c>
       <c r="N31" t="n">
-        <v>0.299</v>
+        <v>0.301</v>
       </c>
       <c r="O31" t="n">
-        <v>15.9</v>
+        <v>16.1</v>
       </c>
       <c r="P31" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.726</v>
+        <v>0.731</v>
       </c>
       <c r="R31" t="n">
         <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="T31" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U31" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="V31" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="W31" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X31" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="Y31" t="n">
         <v>4.9</v>
@@ -6016,25 +6083,25 @@
         <v>18.7</v>
       </c>
       <c r="AB31" t="n">
-        <v>91.40000000000001</v>
+        <v>91.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-9</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="AD31" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
       </c>
       <c r="AH31" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI31" t="n">
         <v>18</v>
@@ -6049,28 +6116,28 @@
         <v>25</v>
       </c>
       <c r="AM31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN31" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AO31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ31" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
         <v>26</v>
       </c>
       <c r="AT31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU31" t="n">
         <v>29</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-20-2011-12</t>
+          <t>2012-02-20</t>
         </is>
       </c>
     </row>
